--- a/江西/导出模板/代理购电,月内连续融合合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,月内连续融合合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A840932-A89E-4EA2-A114-0DE18B18D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EB3CF7-57E5-4977-9B0A-B27FA6E35E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-148.89880274102489</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>95934.594451612938</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="F12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="G12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="H12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="I12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="J12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="K12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="L12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="M12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="N12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="O12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="P12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Q12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="R12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="S12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="T12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="U12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="V12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="W12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="X12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Y12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Z12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="AA12">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>3997.2747688172049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>299.39354838709676</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="F13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="G13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="H13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="I13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="J13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="K13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="L13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="M13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="N13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="O13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="P13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Q13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="R13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="S13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="T13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="U13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="V13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="W13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="X13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Y13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Z13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="AA13">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>12.474731182795699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>320.42973193121594</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="F14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="G14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="H14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="I14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="J14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="K14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="L14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="M14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="N14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="O14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="P14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Q14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="R14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="S14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="T14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="U14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="V14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="W14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="X14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Y14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Z14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="AA14">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>320.42973193121583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>452.3339536150138</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>385.4404370663276</v>
+      </c>
+      <c r="F15">
+        <v>468.11343333836135</v>
+      </c>
+      <c r="G15">
+        <v>399.91498259923287</v>
+      </c>
+      <c r="H15">
+        <v>267.76913416368575</v>
+      </c>
+      <c r="I15">
+        <v>322.71241924535622</v>
+      </c>
+      <c r="J15">
+        <v>380.18214013274149</v>
+      </c>
+      <c r="K15">
+        <v>426.38283621729948</v>
+      </c>
+      <c r="L15">
+        <v>526.04928161229145</v>
+      </c>
+      <c r="M15">
+        <v>479.50152674223165</v>
+      </c>
+      <c r="N15">
+        <v>504.78781386027669</v>
+      </c>
+      <c r="O15">
+        <v>415.16440551868294</v>
+      </c>
+      <c r="P15">
+        <v>382.23097309615139</v>
+      </c>
+      <c r="Q15">
+        <v>422.5938814485196</v>
+      </c>
+      <c r="R15">
+        <v>410.19756610136619</v>
+      </c>
+      <c r="S15">
+        <v>463.70028056716802</v>
+      </c>
+      <c r="T15">
+        <v>447.92608816747833</v>
+      </c>
+      <c r="U15">
+        <v>459.66389378528635</v>
+      </c>
+      <c r="V15">
+        <v>536.15336815282501</v>
+      </c>
+      <c r="W15">
+        <v>530.72295446709472</v>
+      </c>
+      <c r="X15">
+        <v>535.74657490410721</v>
+      </c>
+      <c r="Y15">
+        <v>530.66854781709264</v>
+      </c>
+      <c r="Z15">
+        <v>589.52888333405167</v>
+      </c>
+      <c r="AA15">
+        <v>521.62419708658365</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>449.23926733612035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-131.90422168379786</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>-65.010705135111778</v>
+      </c>
+      <c r="F16">
+        <v>-147.68370140714552</v>
+      </c>
+      <c r="G16">
+        <v>-79.485250668017045</v>
+      </c>
+      <c r="H16">
+        <v>52.660597767530078</v>
+      </c>
+      <c r="I16">
+        <v>-2.2826873141403894</v>
+      </c>
+      <c r="J16">
+        <v>-59.752408201525668</v>
+      </c>
+      <c r="K16">
+        <v>-105.95310428608366</v>
+      </c>
+      <c r="L16">
+        <v>-205.61954968107563</v>
+      </c>
+      <c r="M16">
+        <v>-159.07179481101582</v>
+      </c>
+      <c r="N16">
+        <v>-184.35808192906086</v>
+      </c>
+      <c r="O16">
+        <v>-94.734673587467114</v>
+      </c>
+      <c r="P16">
+        <v>-61.801241164935561</v>
+      </c>
+      <c r="Q16">
+        <v>-102.16414951730377</v>
+      </c>
+      <c r="R16">
+        <v>-89.767834170150365</v>
+      </c>
+      <c r="S16">
+        <v>-143.2705486359522</v>
+      </c>
+      <c r="T16">
+        <v>-127.4963562362625</v>
+      </c>
+      <c r="U16">
+        <v>-139.23416185407052</v>
+      </c>
+      <c r="V16">
+        <v>-215.72363622160918</v>
+      </c>
+      <c r="W16">
+        <v>-210.2932225358789</v>
+      </c>
+      <c r="X16">
+        <v>-215.31684297289138</v>
+      </c>
+      <c r="Y16">
+        <v>-210.23881588587682</v>
+      </c>
+      <c r="Z16">
+        <v>-269.09915140283584</v>
+      </c>
+      <c r="AA16">
+        <v>-201.19446515536782</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-128.80953540490452</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>95934.594451612938</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="F8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="G8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="H8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="I8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="J8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="K8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="L8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="M8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="N8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="O8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="P8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Q8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="R8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="S8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="T8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="U8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="V8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="W8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="X8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Y8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="Z8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="AA8">
+        <v>3997.2747688172049</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>3997.2747688172049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>135425.86742876342</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>4808.2658393817201</v>
+      </c>
+      <c r="F9">
+        <v>5839.5892439516119</v>
+      </c>
+      <c r="G9">
+        <v>4988.8319038978498</v>
+      </c>
+      <c r="H9">
+        <v>3340.3479677419355</v>
+      </c>
+      <c r="I9">
+        <v>4025.750679435484</v>
+      </c>
+      <c r="J9">
+        <v>4742.6699986559142</v>
+      </c>
+      <c r="K9">
+        <v>5319.0112627688168</v>
+      </c>
+      <c r="L9">
+        <v>6562.3233770161287</v>
+      </c>
+      <c r="M9">
+        <v>5981.6526478494625</v>
+      </c>
+      <c r="N9">
+        <v>6297.0922822580642</v>
+      </c>
+      <c r="O9">
+        <v>5179.0643555107526</v>
+      </c>
+      <c r="P9">
+        <v>4768.2286391129037</v>
+      </c>
+      <c r="Q9">
+        <v>5271.745070564516</v>
+      </c>
+      <c r="R9">
+        <v>5117.1043689516127</v>
+      </c>
+      <c r="S9">
+        <v>5784.5363494623653</v>
+      </c>
+      <c r="T9">
+        <v>5587.7575396505372</v>
+      </c>
+      <c r="U9">
+        <v>5734.1835094086018</v>
+      </c>
+      <c r="V9">
+        <v>6688.369140456989</v>
+      </c>
+      <c r="W9">
+        <v>6620.6261895161288</v>
+      </c>
+      <c r="X9">
+        <v>6683.2945040322584</v>
+      </c>
+      <c r="Y9">
+        <v>6619.9474811827959</v>
+      </c>
+      <c r="Z9">
+        <v>7354.2143440860218</v>
+      </c>
+      <c r="AA9">
+        <v>6507.1216370967741</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5604.1390967741936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>-810.99107056451521</v>
+      </c>
+      <c r="F10">
+        <v>-1842.3144751344071</v>
+      </c>
+      <c r="G10">
+        <v>-991.55713508064491</v>
+      </c>
+      <c r="H10">
+        <v>656.9268010752694</v>
+      </c>
+      <c r="I10">
+        <v>-28.475910618279158</v>
+      </c>
+      <c r="J10">
+        <v>-745.39522983870938</v>
+      </c>
+      <c r="K10">
+        <v>-1321.7364939516119</v>
+      </c>
+      <c r="L10">
+        <v>-2565.0486081989238</v>
+      </c>
+      <c r="M10">
+        <v>-1984.3778790322576</v>
+      </c>
+      <c r="N10">
+        <v>-2299.8175134408593</v>
+      </c>
+      <c r="O10">
+        <v>-1181.7895866935478</v>
+      </c>
+      <c r="P10">
+        <v>-770.95387029569883</v>
+      </c>
+      <c r="Q10">
+        <v>-1274.4703017473112</v>
+      </c>
+      <c r="R10">
+        <v>-1119.8296001344079</v>
+      </c>
+      <c r="S10">
+        <v>-1787.2615806451604</v>
+      </c>
+      <c r="T10">
+        <v>-1590.4827708333323</v>
+      </c>
+      <c r="U10">
+        <v>-1736.908740591397</v>
+      </c>
+      <c r="V10">
+        <v>-2691.0943716397842</v>
+      </c>
+      <c r="W10">
+        <v>-2623.3514206989239</v>
+      </c>
+      <c r="X10">
+        <v>-2686.0197352150535</v>
+      </c>
+      <c r="Y10">
+        <v>-2622.672712365591</v>
+      </c>
+      <c r="Z10">
+        <v>-3356.939575268817</v>
+      </c>
+      <c r="AA10">
+        <v>-2509.8468682795692</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1606.8643279569887</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>469.32853467224072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>299.39354838709676</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="F8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="G8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="H8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="I8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="J8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="K8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="L8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="M8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="N8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="O8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="P8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Q8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="R8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="S8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="T8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="U8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="V8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="W8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="X8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Y8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="Z8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="AA8">
+        <v>12.474731182795699</v>
+      </c>
+      <c r="AB8">
+        <v>12.474731182795699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>320.42973193121594</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="F9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="G9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="H9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="I9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="J9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="K9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="L9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="M9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="N9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="O9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="P9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Q9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="R9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="S9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="T9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="U9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="V9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="W9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="X9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Y9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="Z9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="AA9">
+        <v>320.42973193121583</v>
+      </c>
+      <c r="AB9">
+        <v>320.42973193121583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>452.3339536150138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>385.4404370663276</v>
+      </c>
+      <c r="F10">
+        <v>468.11343333836135</v>
+      </c>
+      <c r="G10">
+        <v>399.91498259923287</v>
+      </c>
+      <c r="H10">
+        <v>267.76913416368575</v>
+      </c>
+      <c r="I10">
+        <v>322.71241924535622</v>
+      </c>
+      <c r="J10">
+        <v>380.18214013274149</v>
+      </c>
+      <c r="K10">
+        <v>426.38283621729948</v>
+      </c>
+      <c r="L10">
+        <v>526.04928161229145</v>
+      </c>
+      <c r="M10">
+        <v>479.50152674223165</v>
+      </c>
+      <c r="N10">
+        <v>504.78781386027669</v>
+      </c>
+      <c r="O10">
+        <v>415.16440551868294</v>
+      </c>
+      <c r="P10">
+        <v>382.23097309615139</v>
+      </c>
+      <c r="Q10">
+        <v>422.5938814485196</v>
+      </c>
+      <c r="R10">
+        <v>410.19756610136619</v>
+      </c>
+      <c r="S10">
+        <v>463.70028056716802</v>
+      </c>
+      <c r="T10">
+        <v>447.92608816747833</v>
+      </c>
+      <c r="U10">
+        <v>459.66389378528635</v>
+      </c>
+      <c r="V10">
+        <v>536.15336815282501</v>
+      </c>
+      <c r="W10">
+        <v>530.72295446709472</v>
+      </c>
+      <c r="X10">
+        <v>535.74657490410721</v>
+      </c>
+      <c r="Y10">
+        <v>530.66854781709264</v>
+      </c>
+      <c r="Z10">
+        <v>589.52888333405167</v>
+      </c>
+      <c r="AA10">
+        <v>521.62419708658365</v>
+      </c>
+      <c r="AB10">
+        <v>449.23926733612035</v>
       </c>
     </row>
   </sheetData>
